--- a/StructureDefinition-ECOG.xlsx
+++ b/StructureDefinition-ECOG.xlsx
@@ -9,9 +9,6 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$53</definedName>
-  </definedNames>
 </workbook>
 </file>
 
@@ -57,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-03T09:27:10+00:00</t>
+    <t>2022-03-03T15:49:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1565,21 +1562,6 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -1923,7 +1905,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>27</v>
       </c>
@@ -2040,7 +2022,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>87</v>
       </c>
@@ -2157,7 +2139,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
         <v>95</v>
       </c>
@@ -2272,7 +2254,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
         <v>101</v>
       </c>
@@ -2389,7 +2371,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" hidden="true">
+    <row r="6">
       <c r="A6" t="s" s="2">
         <v>107</v>
       </c>
@@ -2506,7 +2488,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>116</v>
       </c>
@@ -2623,7 +2605,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>124</v>
       </c>
@@ -2740,7 +2722,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
         <v>132</v>
       </c>
@@ -2857,7 +2839,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>140</v>
       </c>
@@ -2976,7 +2958,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>145</v>
       </c>
@@ -3093,7 +3075,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>154</v>
       </c>
@@ -3210,7 +3192,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>163</v>
       </c>
@@ -3327,7 +3309,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>172</v>
       </c>
@@ -3446,7 +3428,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>185</v>
       </c>
@@ -3581,7 +3563,7 @@
         <v>88</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>78</v>
@@ -3684,7 +3666,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>199</v>
       </c>
@@ -3803,7 +3785,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>215</v>
       </c>
@@ -3922,7 +3904,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>225</v>
       </c>
@@ -4039,7 +4021,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>231</v>
       </c>
@@ -4158,7 +4140,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>242</v>
       </c>
@@ -4277,7 +4259,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>253</v>
       </c>
@@ -4394,7 +4376,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>261</v>
       </c>
@@ -4511,7 +4493,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>270</v>
       </c>
@@ -4628,7 +4610,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>270</v>
       </c>
@@ -4747,7 +4729,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
         <v>284</v>
       </c>
@@ -4866,7 +4848,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>294</v>
       </c>
@@ -4985,7 +4967,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>306</v>
       </c>
@@ -5104,7 +5086,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
         <v>314</v>
       </c>
@@ -5221,7 +5203,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
         <v>324</v>
       </c>
@@ -5340,7 +5322,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
         <v>333</v>
       </c>
@@ -5457,7 +5439,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
         <v>342</v>
       </c>
@@ -5574,7 +5556,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
         <v>351</v>
       </c>
@@ -5693,7 +5675,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
         <v>360</v>
       </c>
@@ -5808,7 +5790,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
         <v>365</v>
       </c>
@@ -5925,7 +5907,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
         <v>368</v>
       </c>
@@ -6044,7 +6026,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
         <v>373</v>
       </c>
@@ -6159,7 +6141,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
         <v>380</v>
       </c>
@@ -6274,7 +6256,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
         <v>384</v>
       </c>
@@ -6393,7 +6375,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
         <v>393</v>
       </c>
@@ -6512,7 +6494,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
         <v>400</v>
       </c>
@@ -6629,7 +6611,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
         <v>406</v>
       </c>
@@ -6744,7 +6726,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
         <v>410</v>
       </c>
@@ -6861,7 +6843,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
         <v>417</v>
       </c>
@@ -6978,7 +6960,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
         <v>423</v>
       </c>
@@ -7097,7 +7079,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
         <v>430</v>
       </c>
@@ -7212,7 +7194,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
         <v>431</v>
       </c>
@@ -7329,7 +7311,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
         <v>432</v>
       </c>
@@ -7448,7 +7430,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
         <v>433</v>
       </c>
@@ -7567,7 +7549,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
         <v>438</v>
       </c>
@@ -7686,7 +7668,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
         <v>443</v>
       </c>
@@ -7805,7 +7787,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
         <v>447</v>
       </c>
@@ -7924,7 +7906,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
         <v>448</v>
       </c>
@@ -8044,24 +8026,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO53">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="26">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI52">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StructureDefinition-ECOG.xlsx
+++ b/StructureDefinition-ECOG.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-03T15:49:29+00:00</t>
+    <t>2022-03-03T16:02:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profile for the Eastern Cooperative Oncology Group (ECOG) Performance Status that represents a patient's functional status.</t>
+    <t>Profile for the Eastern Cooperative Oncology Group (ECOG) Performance Status that represents a cancer patient's functional status.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-ECOG.xlsx
+++ b/StructureDefinition-ECOG.xlsx
@@ -9,11 +9,14 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$93</definedName>
+  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2017" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3508" uniqueCount="531">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-03T16:02:07+00:00</t>
+    <t>2022-03-04T09:19:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -658,14 +661,6 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://loinc.org"/&gt;
-    &lt;code value="89247-1"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
     <t>example</t>
   </si>
   <si>
@@ -691,6 +686,228 @@
   </si>
   <si>
     <t>116680003 |Is a|</t>
+  </si>
+  <si>
+    <t>Observation.code.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Observation.code.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>loinc</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://loinc.org"/&gt;
+  &lt;code value="89247-1"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>snomed</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://snomed.info/sct"/&gt;
+  &lt;code value="423740007"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>Observation.code.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>Observation.subject</t>
@@ -907,7 +1124,59 @@
     <t>valueCodeableConcept</t>
   </si>
   <si>
+    <t>Observation.value[x].id</t>
+  </si>
+  <si>
+    <t>Observation.value[x].extension</t>
+  </si>
+  <si>
+    <t>Observation.value[x].coding</t>
+  </si>
+  <si>
+    <t>valueLoinc</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://loinc.org"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
     <t>http://loinc.org/vs/LL529-9</t>
+  </si>
+  <si>
+    <t>Observation.value[x].coding.id</t>
+  </si>
+  <si>
+    <t>Observation.value[x].coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.value[x].coding.system</t>
+  </si>
+  <si>
+    <t>Observation.value[x].coding.version</t>
+  </si>
+  <si>
+    <t>Observation.value[x].coding.code</t>
+  </si>
+  <si>
+    <t>Observation.value[x].coding.display</t>
+  </si>
+  <si>
+    <t>Observation.value[x].coding.userSelected</t>
+  </si>
+  <si>
+    <t>valueSnomed</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://snomed.info/sct"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>https://www.vision-zero-oncology.de/fhir/ValueSet/vs-ecog-performance-status-snomed</t>
+  </si>
+  <si>
+    <t>Observation.value[x].text</t>
   </si>
   <si>
     <t>Observation.dataAbsentReason</t>
@@ -1150,25 +1419,7 @@
     <t>Observation.referenceRange.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Observation.referenceRange.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Observation.referenceRange.modifierExtension</t>
@@ -1562,6 +1813,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1728,7 +1994,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO53"/>
+  <dimension ref="A1:AO93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1761,10 +2027,10 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.40625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="81.43359375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1905,7 +2171,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>27</v>
       </c>
@@ -2022,7 +2288,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>87</v>
       </c>
@@ -2139,7 +2405,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>95</v>
       </c>
@@ -2254,7 +2520,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>101</v>
       </c>
@@ -2371,7 +2637,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>107</v>
       </c>
@@ -2488,7 +2754,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>116</v>
       </c>
@@ -2605,7 +2871,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>124</v>
       </c>
@@ -2722,7 +2988,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>132</v>
       </c>
@@ -2839,7 +3105,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>140</v>
       </c>
@@ -2958,7 +3224,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>145</v>
       </c>
@@ -3075,7 +3341,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>154</v>
       </c>
@@ -3192,7 +3458,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
         <v>163</v>
       </c>
@@ -3309,7 +3575,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>172</v>
       </c>
@@ -3428,7 +3694,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
         <v>185</v>
       </c>
@@ -3545,7 +3811,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>185</v>
       </c>
@@ -3666,7 +3932,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
         <v>199</v>
       </c>
@@ -3713,28 +3979,28 @@
         <v>78</v>
       </c>
       <c r="R17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W17" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="S17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W17" t="s" s="2">
+      <c r="X17" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="X17" t="s" s="2">
+      <c r="Y17" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>78</v>
@@ -3767,27 +4033,27 @@
         <v>100</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AN17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AO17" t="s" s="2">
+    </row>
+    <row r="18" hidden="true">
+      <c r="A18" t="s" s="2">
         <v>214</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3795,7 +4061,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>88</v>
@@ -3807,23 +4073,19 @@
         <v>78</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="K18" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>220</v>
-      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>78</v>
       </c>
@@ -3871,7 +4133,7 @@
         <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>76</v>
@@ -3883,34 +4145,34 @@
         <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>221</v>
+        <v>78</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>222</v>
+        <v>78</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>224</v>
+        <v>78</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3926,19 +4188,19 @@
         <v>78</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>227</v>
+        <v>135</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>229</v>
+        <v>137</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3976,19 +4238,19 @@
         <v>78</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>78</v>
+        <v>221</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>78</v>
+        <v>222</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>78</v>
+        <v>194</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>76</v>
@@ -4000,7 +4262,7 @@
         <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>78</v>
@@ -4009,32 +4271,32 @@
         <v>78</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>211</v>
+        <v>78</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="AN19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO19" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" hidden="true">
+      <c r="A20" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>232</v>
+        <v>78</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>78</v>
@@ -4046,19 +4308,19 @@
         <v>89</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>78</v>
@@ -4095,25 +4357,23 @@
         <v>78</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>78</v>
+        <v>194</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>78</v>
@@ -4122,38 +4382,40 @@
         <v>100</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>238</v>
+        <v>78</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>241</v>
+        <v>78</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="C21" t="s" s="2">
-        <v>243</v>
+        <v>78</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>78</v>
@@ -4165,19 +4427,19 @@
         <v>89</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>78</v>
@@ -4187,7 +4449,7 @@
         <v>78</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>78</v>
+        <v>234</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>78</v>
@@ -4226,13 +4488,13 @@
         <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>78</v>
@@ -4241,27 +4503,27 @@
         <v>100</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>249</v>
+        <v>78</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>252</v>
+        <v>78</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4281,20 +4543,18 @@
         <v>78</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>254</v>
+        <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>255</v>
+        <v>215</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>78</v>
@@ -4343,7 +4603,7 @@
         <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>76</v>
@@ -4355,7 +4615,7 @@
         <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>78</v>
@@ -4364,25 +4624,25 @@
         <v>78</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>258</v>
+        <v>78</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>259</v>
+        <v>218</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>260</v>
+        <v>78</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4398,21 +4658,21 @@
         <v>78</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>262</v>
+        <v>134</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>263</v>
+        <v>135</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="M23" s="2"/>
-      <c r="N23" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>78</v>
       </c>
@@ -4448,19 +4708,19 @@
         <v>78</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>78</v>
+        <v>221</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>78</v>
+        <v>222</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>78</v>
+        <v>194</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>261</v>
+        <v>223</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>76</v>
@@ -4472,30 +4732,30 @@
         <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>266</v>
+        <v>78</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>267</v>
+        <v>78</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>268</v>
+        <v>218</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>269</v>
+        <v>78</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>270</v>
+        <v>237</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4503,7 +4763,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>88</v>
@@ -4518,19 +4778,19 @@
         <v>89</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>186</v>
+        <v>102</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>273</v>
+        <v>240</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>274</v>
+        <v>241</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>78</v>
@@ -4567,17 +4827,19 @@
         <v>78</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AB24" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AC24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>276</v>
+        <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>76</v>
@@ -4586,7 +4848,7 @@
         <v>88</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>277</v>
+        <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>100</v>
@@ -4595,28 +4857,26 @@
         <v>78</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>278</v>
+        <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>279</v>
+        <v>243</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>281</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
         <v>78</v>
       </c>
@@ -4637,20 +4897,18 @@
         <v>89</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>186</v>
+        <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>78</v>
       </c>
@@ -4674,11 +4932,13 @@
         <v>78</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="X25" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Y25" t="s" s="2">
-        <v>283</v>
+        <v>78</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>78</v>
@@ -4696,7 +4956,7 @@
         <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>76</v>
@@ -4705,7 +4965,7 @@
         <v>88</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>277</v>
+        <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>100</v>
@@ -4714,24 +4974,24 @@
         <v>78</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>278</v>
+        <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>281</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4739,7 +4999,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>88</v>
@@ -4751,22 +5011,20 @@
         <v>78</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>78</v>
@@ -4791,13 +5049,13 @@
         <v>78</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>289</v>
+        <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>290</v>
+        <v>78</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>291</v>
+        <v>78</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>78</v>
@@ -4815,7 +5073,7 @@
         <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>76</v>
@@ -4824,7 +5082,7 @@
         <v>88</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>292</v>
+        <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>100</v>
@@ -4836,10 +5094,10 @@
         <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>131</v>
+        <v>257</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>78</v>
@@ -4848,20 +5106,20 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>294</v>
+        <v>259</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>295</v>
+        <v>78</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>78</v>
@@ -4870,22 +5128,20 @@
         <v>78</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>186</v>
+        <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>299</v>
+        <v>262</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>78</v>
@@ -4910,13 +5166,13 @@
         <v>78</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>289</v>
+        <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>300</v>
+        <v>78</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>301</v>
+        <v>78</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>78</v>
@@ -4934,13 +5190,13 @@
         <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>294</v>
+        <v>263</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>78</v>
@@ -4952,24 +5208,24 @@
         <v>78</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>302</v>
+        <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>303</v>
+        <v>264</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>304</v>
+        <v>265</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>305</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>306</v>
+        <v>266</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4980,7 +5236,7 @@
         <v>76</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>78</v>
@@ -4989,22 +5245,22 @@
         <v>78</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>307</v>
+        <v>267</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>309</v>
+        <v>269</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>311</v>
+        <v>271</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>78</v>
@@ -5053,13 +5309,13 @@
         <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>78</v>
@@ -5074,10 +5330,10 @@
         <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>312</v>
+        <v>273</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>78</v>
@@ -5086,11 +5342,13 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="C29" t="s" s="2">
         <v>78</v>
       </c>
@@ -5099,7 +5357,7 @@
         <v>76</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>78</v>
@@ -5108,21 +5366,23 @@
         <v>78</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>186</v>
+        <v>225</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>315</v>
+        <v>226</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>316</v>
+        <v>227</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>78</v>
       </c>
@@ -5131,7 +5391,7 @@
         <v>78</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>78</v>
+        <v>276</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>78</v>
@@ -5146,13 +5406,13 @@
         <v>78</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>206</v>
+        <v>78</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>318</v>
+        <v>78</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>319</v>
+        <v>78</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>78</v>
@@ -5170,13 +5430,13 @@
         <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>314</v>
+        <v>230</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>78</v>
@@ -5188,24 +5448,24 @@
         <v>78</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>320</v>
+        <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>321</v>
+        <v>231</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>322</v>
+        <v>232</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>323</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>324</v>
+        <v>235</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5228,20 +5488,16 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>186</v>
+        <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>325</v>
+        <v>215</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>78</v>
       </c>
@@ -5265,13 +5521,13 @@
         <v>78</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>206</v>
+        <v>78</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>329</v>
+        <v>78</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>330</v>
+        <v>78</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>78</v>
@@ -5289,7 +5545,7 @@
         <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>324</v>
+        <v>217</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>76</v>
@@ -5301,7 +5557,7 @@
         <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>78</v>
@@ -5310,10 +5566,10 @@
         <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>331</v>
+        <v>78</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>332</v>
+        <v>218</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>78</v>
@@ -5322,20 +5578,20 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>333</v>
+        <v>236</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>78</v>
@@ -5347,16 +5603,16 @@
         <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>334</v>
+        <v>134</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>335</v>
+        <v>135</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>336</v>
+        <v>220</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>337</v>
+        <v>137</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5394,54 +5650,54 @@
         <v>78</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>78</v>
+        <v>221</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>78</v>
+        <v>222</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>78</v>
+        <v>194</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>333</v>
+        <v>223</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>338</v>
+        <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>339</v>
+        <v>78</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>340</v>
+        <v>218</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>341</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>342</v>
+        <v>237</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5449,7 +5705,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>88</v>
@@ -5461,21 +5717,23 @@
         <v>78</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>343</v>
+        <v>102</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>344</v>
+        <v>238</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>345</v>
+        <v>239</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>78</v>
       </c>
@@ -5523,7 +5781,7 @@
         <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>342</v>
+        <v>242</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>76</v>
@@ -5541,24 +5799,24 @@
         <v>78</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>347</v>
+        <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>348</v>
+        <v>243</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>349</v>
+        <v>244</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>350</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>351</v>
+        <v>245</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5569,7 +5827,7 @@
         <v>76</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>78</v>
@@ -5578,23 +5836,21 @@
         <v>78</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>352</v>
+        <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>353</v>
+        <v>246</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>354</v>
+        <v>247</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>78</v>
       </c>
@@ -5642,19 +5898,19 @@
         <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>351</v>
+        <v>249</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>357</v>
+        <v>100</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>78</v>
@@ -5663,10 +5919,10 @@
         <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>358</v>
+        <v>250</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>359</v>
+        <v>251</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>78</v>
@@ -5675,9 +5931,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>360</v>
+        <v>252</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5685,7 +5941,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>88</v>
@@ -5697,19 +5953,21 @@
         <v>78</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>361</v>
+        <v>253</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>362</v>
+        <v>254</v>
       </c>
       <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+      <c r="N34" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>78</v>
       </c>
@@ -5757,7 +6015,7 @@
         <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>363</v>
+        <v>256</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>76</v>
@@ -5769,7 +6027,7 @@
         <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>78</v>
@@ -5778,10 +6036,10 @@
         <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>78</v>
+        <v>257</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>364</v>
+        <v>258</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>78</v>
@@ -5790,20 +6048,20 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>365</v>
+        <v>259</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>78</v>
@@ -5812,21 +6070,21 @@
         <v>78</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>135</v>
+        <v>260</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>78</v>
       </c>
@@ -5874,19 +6132,19 @@
         <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>367</v>
+        <v>263</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>78</v>
@@ -5895,10 +6153,10 @@
         <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>78</v>
+        <v>264</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>364</v>
+        <v>265</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>78</v>
@@ -5907,44 +6165,44 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>368</v>
+        <v>266</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>369</v>
+        <v>78</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>134</v>
+        <v>267</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>370</v>
+        <v>268</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>371</v>
+        <v>269</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>137</v>
+        <v>270</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>143</v>
+        <v>271</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>78</v>
@@ -5993,19 +6251,19 @@
         <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>372</v>
+        <v>272</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>78</v>
@@ -6014,10 +6272,10 @@
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>78</v>
+        <v>273</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>131</v>
+        <v>274</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>78</v>
@@ -6026,9 +6284,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>373</v>
+        <v>277</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6048,19 +6306,23 @@
         <v>78</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>374</v>
+        <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>375</v>
+        <v>278</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>78</v>
       </c>
@@ -6108,7 +6370,7 @@
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>373</v>
+        <v>282</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>76</v>
@@ -6117,7 +6379,7 @@
         <v>88</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>377</v>
+        <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>100</v>
@@ -6129,10 +6391,10 @@
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>378</v>
+        <v>283</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>379</v>
+        <v>284</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>78</v>
@@ -6141,9 +6403,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>380</v>
+        <v>285</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6151,7 +6413,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>88</v>
@@ -6163,19 +6425,23 @@
         <v>78</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>374</v>
+        <v>286</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>381</v>
+        <v>287</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>78</v>
       </c>
@@ -6223,7 +6489,7 @@
         <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>380</v>
+        <v>285</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>76</v>
@@ -6232,33 +6498,33 @@
         <v>88</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>377</v>
+        <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>78</v>
+        <v>291</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>378</v>
+        <v>292</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>383</v>
+        <v>293</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>78</v>
+        <v>294</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>384</v>
+        <v>295</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6269,7 +6535,7 @@
         <v>76</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>78</v>
@@ -6278,23 +6544,21 @@
         <v>78</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>186</v>
+        <v>296</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>385</v>
+        <v>297</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>386</v>
+        <v>298</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>78</v>
       </c>
@@ -6318,13 +6582,13 @@
         <v>78</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>389</v>
+        <v>78</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>390</v>
+        <v>78</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>78</v>
@@ -6342,13 +6606,13 @@
         <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>384</v>
+        <v>295</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>78</v>
@@ -6360,35 +6624,35 @@
         <v>78</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>391</v>
+        <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>392</v>
+        <v>210</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>78</v>
+        <v>294</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>393</v>
+        <v>301</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>78</v>
+        <v>302</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>78</v>
@@ -6397,22 +6661,22 @@
         <v>78</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>186</v>
+        <v>303</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>394</v>
+        <v>304</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>395</v>
+        <v>305</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>396</v>
+        <v>306</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>397</v>
+        <v>307</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>78</v>
@@ -6437,13 +6701,13 @@
         <v>78</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>206</v>
+        <v>78</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>398</v>
+        <v>78</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>399</v>
+        <v>78</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>78</v>
@@ -6461,13 +6725,13 @@
         <v>78</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>393</v>
+        <v>301</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>78</v>
@@ -6476,31 +6740,31 @@
         <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>78</v>
+        <v>308</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>391</v>
+        <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>392</v>
+        <v>309</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>78</v>
+        <v>311</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>400</v>
+        <v>312</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>78</v>
+        <v>313</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6516,20 +6780,22 @@
         <v>78</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>401</v>
+        <v>314</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>402</v>
+        <v>315</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="N41" t="s" s="2">
-        <v>404</v>
+        <v>318</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>78</v>
@@ -6578,7 +6844,7 @@
         <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>400</v>
+        <v>312</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>76</v>
@@ -6593,27 +6859,27 @@
         <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>78</v>
+        <v>319</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>78</v>
+        <v>320</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>405</v>
+        <v>321</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>78</v>
+        <v>322</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>406</v>
+        <v>323</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6633,18 +6899,20 @@
         <v>78</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>90</v>
+        <v>324</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>407</v>
+        <v>325</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>78</v>
@@ -6693,7 +6961,7 @@
         <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>406</v>
+        <v>323</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>76</v>
@@ -6714,21 +6982,21 @@
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>378</v>
+        <v>328</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>409</v>
+        <v>329</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>78</v>
+        <v>330</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>410</v>
+        <v>331</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6751,18 +7019,18 @@
         <v>89</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>411</v>
+        <v>332</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>412</v>
+        <v>333</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>78</v>
       </c>
@@ -6810,7 +7078,7 @@
         <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>410</v>
+        <v>331</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>76</v>
@@ -6825,27 +7093,27 @@
         <v>100</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>78</v>
+        <v>336</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>415</v>
+        <v>337</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>416</v>
+        <v>338</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>78</v>
+        <v>339</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>417</v>
+        <v>340</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6856,7 +7124,7 @@
         <v>76</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>78</v>
@@ -6868,18 +7136,20 @@
         <v>89</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>418</v>
+        <v>186</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>419</v>
+        <v>341</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>420</v>
+        <v>342</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>78</v>
       </c>
@@ -6915,28 +7185,26 @@
         <v>78</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="AB44" s="2"/>
       <c r="AC44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>78</v>
+        <v>346</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>417</v>
+        <v>340</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>78</v>
+        <v>347</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>100</v>
@@ -6945,26 +7213,28 @@
         <v>78</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>78</v>
+        <v>348</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>415</v>
+        <v>349</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>422</v>
+        <v>350</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>78</v>
+        <v>351</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="B45" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="C45" t="s" s="2">
         <v>78</v>
       </c>
@@ -6973,7 +7243,7 @@
         <v>76</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>78</v>
@@ -6985,19 +7255,19 @@
         <v>89</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>352</v>
+        <v>186</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>424</v>
+        <v>341</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>425</v>
+        <v>342</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>426</v>
+        <v>343</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>427</v>
+        <v>344</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>78</v>
@@ -7046,16 +7316,16 @@
         <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>423</v>
+        <v>340</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>78</v>
+        <v>347</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>100</v>
@@ -7064,24 +7334,24 @@
         <v>78</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>78</v>
+        <v>348</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>428</v>
+        <v>349</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>429</v>
+        <v>350</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>78</v>
+        <v>351</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>430</v>
+        <v>353</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7107,10 +7377,10 @@
         <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>361</v>
+        <v>215</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>362</v>
+        <v>216</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7161,7 +7431,7 @@
         <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>363</v>
+        <v>217</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>76</v>
@@ -7185,7 +7455,7 @@
         <v>78</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>364</v>
+        <v>218</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>78</v>
@@ -7194,9 +7464,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>431</v>
+        <v>354</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7225,7 +7495,7 @@
         <v>135</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>366</v>
+        <v>220</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>137</v>
@@ -7266,19 +7536,19 @@
         <v>78</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>78</v>
+        <v>221</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>78</v>
+        <v>222</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>78</v>
+        <v>194</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>367</v>
+        <v>223</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>76</v>
@@ -7302,7 +7572,7 @@
         <v>78</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>364</v>
+        <v>218</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>78</v>
@@ -7311,17 +7581,17 @@
         <v>78</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>432</v>
+        <v>355</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>369</v>
+        <v>78</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>77</v>
@@ -7330,25 +7600,25 @@
         <v>78</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>134</v>
+        <v>225</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>370</v>
+        <v>226</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>371</v>
+        <v>227</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>137</v>
+        <v>228</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>143</v>
+        <v>229</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>78</v>
@@ -7385,19 +7655,17 @@
         <v>78</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="AB48" s="2"/>
       <c r="AC48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>78</v>
+        <v>194</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>372</v>
+        <v>230</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>76</v>
@@ -7409,7 +7677,7 @@
         <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>78</v>
@@ -7418,10 +7686,10 @@
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>78</v>
+        <v>231</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>131</v>
+        <v>232</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>78</v>
@@ -7432,9 +7700,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="B49" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="C49" t="s" s="2">
         <v>78</v>
       </c>
@@ -7446,7 +7716,7 @@
         <v>88</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>78</v>
@@ -7455,19 +7725,19 @@
         <v>89</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>186</v>
+        <v>225</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>434</v>
+        <v>226</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>435</v>
+        <v>227</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>436</v>
+        <v>228</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>78</v>
@@ -7477,7 +7747,7 @@
         <v>78</v>
       </c>
       <c r="R49" t="s" s="2">
-        <v>78</v>
+        <v>357</v>
       </c>
       <c r="S49" t="s" s="2">
         <v>78</v>
@@ -7492,13 +7762,11 @@
         <v>78</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="X49" s="2"/>
       <c r="Y49" t="s" s="2">
-        <v>208</v>
+        <v>358</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>78</v>
@@ -7516,13 +7784,13 @@
         <v>78</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>433</v>
+        <v>230</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>78</v>
@@ -7534,24 +7802,24 @@
         <v>78</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>437</v>
+        <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>213</v>
+        <v>78</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>438</v>
+        <v>359</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7571,23 +7839,19 @@
         <v>78</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>439</v>
+        <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>440</v>
+        <v>215</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>78</v>
       </c>
@@ -7635,7 +7899,7 @@
         <v>78</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>438</v>
+        <v>217</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>76</v>
@@ -7647,41 +7911,41 @@
         <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>442</v>
+        <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>279</v>
+        <v>78</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>280</v>
+        <v>218</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>281</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>443</v>
+        <v>360</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>78</v>
@@ -7693,20 +7957,18 @@
         <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>186</v>
+        <v>134</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>444</v>
+        <v>135</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>445</v>
+        <v>220</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>78</v>
       </c>
@@ -7730,43 +7992,43 @@
         <v>78</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>289</v>
+        <v>78</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>290</v>
+        <v>78</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>291</v>
+        <v>78</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>78</v>
+        <v>221</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>78</v>
+        <v>222</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>78</v>
+        <v>194</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>443</v>
+        <v>223</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>292</v>
+        <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>78</v>
@@ -7775,10 +8037,10 @@
         <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>293</v>
+        <v>218</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>78</v>
@@ -7787,20 +8049,20 @@
         <v>78</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>447</v>
+        <v>361</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>295</v>
+        <v>78</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>78</v>
@@ -7809,22 +8071,22 @@
         <v>78</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>186</v>
+        <v>102</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>296</v>
+        <v>238</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>297</v>
+        <v>239</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>298</v>
+        <v>240</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>299</v>
+        <v>241</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>78</v>
@@ -7849,13 +8111,13 @@
         <v>78</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>289</v>
+        <v>78</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>300</v>
+        <v>78</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>301</v>
+        <v>78</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>78</v>
@@ -7873,13 +8135,13 @@
         <v>78</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>447</v>
+        <v>242</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>78</v>
@@ -7891,24 +8153,24 @@
         <v>78</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>302</v>
+        <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>303</v>
+        <v>243</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>304</v>
+        <v>244</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>305</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>448</v>
+        <v>362</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7919,7 +8181,7 @@
         <v>76</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>78</v>
@@ -7928,23 +8190,21 @@
         <v>78</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>449</v>
+        <v>246</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>450</v>
+        <v>247</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>78</v>
       </c>
@@ -7992,13 +8252,13 @@
         <v>78</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>448</v>
+        <v>249</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>78</v>
@@ -8013,19 +8273,4745 @@
         <v>78</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>358</v>
+        <v>250</v>
       </c>
       <c r="AM53" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="X57" s="2"/>
+      <c r="Y57" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="AN53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO53" t="s" s="2">
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO58" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO59" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO61" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO62" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO72" t="s" s="2">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO77" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO78" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO79" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO80" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO81" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO82" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO83" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO84" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO85" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
+      <c r="O86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO86" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO87" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO88" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AO89" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO90" t="s" s="2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO91" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO92" t="s" s="2">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO93" t="s" s="2">
         <v>78</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AO93">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI92">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StructureDefinition-ECOG.xlsx
+++ b/StructureDefinition-ECOG.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-04T09:19:03+00:00</t>
+    <t>2022-03-04T09:46:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ECOG.xlsx
+++ b/StructureDefinition-ECOG.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-04T09:46:47+00:00</t>
+    <t>2022-03-04T10:02:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
